--- a/changes/ModifiedFiles.xlsx
+++ b/changes/ModifiedFiles.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>date</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>login.php</t>
+  </si>
+  <si>
+    <t>admin/assests/css/mystyle.css</t>
   </si>
 </sst>
 </file>
@@ -375,16 +378,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="2" max="2" width="71.42578125" customWidth="1"/>
     <col min="3" max="3" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -427,6 +430,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/changes/ModifiedFiles.xlsx
+++ b/changes/ModifiedFiles.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DonsMagicWebsite\changes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\mywork\DonsMagicWebsite\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>date</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>admin/assests/css/mystyle.css</t>
+  </si>
+  <si>
+    <t>admin/product.php, product_add etc….</t>
+  </si>
+  <si>
+    <t>all admin product pages changed</t>
+  </si>
+  <si>
+    <t>donsmagic/css/style.css</t>
   </si>
 </sst>
 </file>
@@ -378,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,6 +444,19 @@
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
